--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.197812</v>
+        <v>7.425889666666666</v>
       </c>
       <c r="H2">
-        <v>15.593436</v>
+        <v>22.277669</v>
       </c>
       <c r="I2">
-        <v>0.08428058420156222</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="J2">
-        <v>0.08428058420156223</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>109.579304058364</v>
+        <v>25.66584502405822</v>
       </c>
       <c r="R2">
-        <v>986.213736525276</v>
+        <v>230.992605216524</v>
       </c>
       <c r="S2">
-        <v>0.004817528884349207</v>
+        <v>0.001143681668226326</v>
       </c>
       <c r="T2">
-        <v>0.004817528884349208</v>
+        <v>0.001143681668226326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.197812</v>
+        <v>7.425889666666666</v>
       </c>
       <c r="H3">
-        <v>15.593436</v>
+        <v>22.277669</v>
       </c>
       <c r="I3">
-        <v>0.08428058420156222</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="J3">
-        <v>0.08428058420156223</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>1567.660871941384</v>
+        <v>2239.649427448931</v>
       </c>
       <c r="R3">
-        <v>14108.94784747246</v>
+        <v>20156.84484704037</v>
       </c>
       <c r="S3">
-        <v>0.06892041883583427</v>
+        <v>0.09979979194240138</v>
       </c>
       <c r="T3">
-        <v>0.06892041883583429</v>
+        <v>0.09979979194240136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.197812</v>
+        <v>7.425889666666666</v>
       </c>
       <c r="H4">
-        <v>15.593436</v>
+        <v>22.277669</v>
       </c>
       <c r="I4">
-        <v>0.08428058420156222</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="J4">
-        <v>0.08428058420156223</v>
+        <v>0.1162096740362542</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>239.802354340396</v>
+        <v>342.5952737687868</v>
       </c>
       <c r="R4">
-        <v>2158.221189063564</v>
+        <v>3083.357463919081</v>
       </c>
       <c r="S4">
-        <v>0.01054263648137874</v>
+        <v>0.01526620042562648</v>
       </c>
       <c r="T4">
-        <v>0.01054263648137874</v>
+        <v>0.01526620042562648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.36396166666666</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H5">
         <v>127.091885</v>
       </c>
       <c r="I5">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="J5">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>893.109146038476</v>
+        <v>146.4210920911622</v>
       </c>
       <c r="R5">
-        <v>8037.982314346285</v>
+        <v>1317.78982882046</v>
       </c>
       <c r="S5">
-        <v>0.03926452303096558</v>
+        <v>0.006524590120035825</v>
       </c>
       <c r="T5">
-        <v>0.03926452303096558</v>
+        <v>0.006524590120035824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.36396166666666</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H6">
         <v>127.091885</v>
       </c>
       <c r="I6">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="J6">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>12776.97713677563</v>
@@ -818,10 +818,10 @@
         <v>114992.7942309807</v>
       </c>
       <c r="S6">
-        <v>0.5617251992976842</v>
+        <v>0.5693478828762383</v>
       </c>
       <c r="T6">
-        <v>0.5617251992976842</v>
+        <v>0.5693478828762383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.36396166666666</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H7">
         <v>127.091885</v>
       </c>
       <c r="I7">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="J7">
-        <v>0.6869158481221048</v>
+        <v>0.6629646274259261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>1954.471948360763</v>
       </c>
       <c r="R7">
-        <v>17590.24753524686</v>
+        <v>17590.24753524687</v>
       </c>
       <c r="S7">
-        <v>0.08592612579345509</v>
+        <v>0.08709215442965206</v>
       </c>
       <c r="T7">
-        <v>0.08592612579345509</v>
+        <v>0.08709215442965204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>42.332808</v>
       </c>
       <c r="I8">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="J8">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>297.4841234142586</v>
+        <v>48.77113891768533</v>
       </c>
       <c r="R8">
-        <v>2677.357110728328</v>
+        <v>438.940250259168</v>
       </c>
       <c r="S8">
-        <v>0.01307854954453972</v>
+        <v>0.002173264019415351</v>
       </c>
       <c r="T8">
-        <v>0.01307854954453972</v>
+        <v>0.002173264019415351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>42.332808</v>
       </c>
       <c r="I9">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="J9">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>4255.860395425819</v>
@@ -1004,10 +1004,10 @@
         <v>38302.74355883236</v>
       </c>
       <c r="S9">
-        <v>0.1871040390236607</v>
+        <v>0.1896430650234378</v>
       </c>
       <c r="T9">
-        <v>0.1871040390236607</v>
+        <v>0.1896430650234378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>42.332808</v>
       </c>
       <c r="I10">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="J10">
-        <v>0.228803567676333</v>
+        <v>0.2208256985378198</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>651.0115553903548</v>
@@ -1066,10 +1066,10 @@
         <v>5859.103998513193</v>
       </c>
       <c r="S10">
-        <v>0.02862097910813253</v>
+        <v>0.02900936949496665</v>
       </c>
       <c r="T10">
-        <v>0.02862097910813253</v>
+        <v>0.02900936949496665</v>
       </c>
     </row>
   </sheetData>
